--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Desktop\projetAndroid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\AndroidStudioProjects\projetAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Priorité</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -50,43 +47,88 @@
     <t>b</t>
   </si>
   <si>
-    <t>la liste peut-être filtré selon le type de service offert</t>
-  </si>
-  <si>
-    <t>la list peut également être filtré par proximité</t>
-  </si>
-  <si>
-    <t>lorsque l'on appuie sur un restaurant, ses information s'affiche</t>
-  </si>
-  <si>
-    <t>parmis les informations on doit retrouver les heures d'ouvertures et l'adresse</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>on peut aussi voir une photo du restaurant</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je veux pouvoir filtrer les restaurants afin de restreindre ma liste</t>
-  </si>
-  <si>
-    <t>En tant qu'utilsateur je veux pouvoir choisir un restaurant  afin de visualiser ses informations</t>
-  </si>
-  <si>
-    <t>Les restaurants s'affichent aux bons endroit sur la carte</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je veux pouvoir visualiser des restaurants à proximité sur une carte afin de décider où manger</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je veux pouvoir visualiser un itinéraire en direction du restaurant afin de savoir comment  m'y rendre</t>
-  </si>
-  <si>
-    <t>Un estimé du temps de trajet s'affiche</t>
-  </si>
-  <si>
-    <t>Le chemin pour s'y rendre apparait en surbrillance</t>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux pouvoir ajouter des commentaires ou avis afin d'exprimer mon opinion sur celui-ci.</t>
+  </si>
+  <si>
+    <t>Une zone de texte est présente pour décrire notre expérience.</t>
+  </si>
+  <si>
+    <t>Un estimé du temps de trajet s'affiche.</t>
+  </si>
+  <si>
+    <t>Le chemin pour s'y rendre apparait en surbrillance.</t>
+  </si>
+  <si>
+    <t>la list peut également être filtré par proximité.</t>
+  </si>
+  <si>
+    <t>la liste peut-être filtré selon le type de service offert.</t>
+  </si>
+  <si>
+    <t>on peut aussi voir une photo du restaurant.</t>
+  </si>
+  <si>
+    <t>parmis les informations on doit retrouver les heures d'ouvertures et l'adresse.</t>
+  </si>
+  <si>
+    <t>En tant qu'utilsateur je veux pouvoir choisir un restaurant  afin de visualiser ses informations.</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je veux pouvoir filtrer les restaurants afin de restreindre ma liste.</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je veux pouvoir visualiser un itinéraire en direction du restaurant afin de savoir comment  m'y rendre.</t>
+  </si>
+  <si>
+    <t>On peut insérer un vote sur 5 étoiles.</t>
+  </si>
+  <si>
+    <t>Les avis sont sauvegardé dans Firestore.</t>
+  </si>
+  <si>
+    <t>Assigné</t>
+  </si>
+  <si>
+    <t>Yohan</t>
+  </si>
+  <si>
+    <t>Jessy</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Vincent?</t>
+  </si>
+  <si>
+    <t>Un bouton qui affiche une boite de dialogue est disponible dans la zone de visualisation des informations.</t>
+  </si>
+  <si>
+    <t>lorsque l'on appuie sur un restaurant, ses information s'affiche avec une animation.</t>
+  </si>
+  <si>
+    <t>Points optionnels:</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Google Map</t>
+  </si>
+  <si>
+    <t>Firebase</t>
+  </si>
+  <si>
+    <t>API?</t>
+  </si>
+  <si>
+    <t>Thread (reviews)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,12 +188,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,145 +500,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="108.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="11.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="5"/>
+    <col min="5" max="5" width="17.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="108.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="2" t="s">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="4"/>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>